--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FBFC1-AC76-4F53-A1B6-CBEC32FAF414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB2629-B711-4E26-83B4-C0B9C34B7779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лишний лист" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>№п/п</t>
   </si>
@@ -467,6 +467,21 @@
   </si>
   <si>
     <t>158 УК РФ</t>
+  </si>
+  <si>
+    <t>24.02.2022</t>
+  </si>
+  <si>
+    <t>10.12.2018</t>
+  </si>
+  <si>
+    <t>25.12.2022</t>
+  </si>
+  <si>
+    <t>45 67 84392</t>
+  </si>
+  <si>
+    <t>ОВД Белогородского района г. Текстильщики</t>
   </si>
 </sst>
 </file>
@@ -839,7 +854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -850,41 +865,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.53125" customWidth="1"/>
-    <col min="6" max="7" width="10.796875" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" customWidth="1"/>
-    <col min="11" max="11" width="5.73046875" customWidth="1"/>
-    <col min="12" max="12" width="5.1328125" customWidth="1"/>
-    <col min="15" max="15" width="11.46484375" customWidth="1"/>
-    <col min="16" max="16" width="10.9296875" customWidth="1"/>
-    <col min="17" max="17" width="11.73046875" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" customWidth="1"/>
-    <col min="19" max="19" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="7" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" customWidth="1"/>
+    <col min="10" max="10" width="5.6328125" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" customWidth="1"/>
+    <col min="12" max="12" width="5.08984375" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="30" max="30" width="10.9296875" customWidth="1"/>
-    <col min="39" max="39" width="11.46484375" customWidth="1"/>
-    <col min="40" max="40" width="11.796875" customWidth="1"/>
-    <col min="42" max="42" width="11.46484375" customWidth="1"/>
-    <col min="50" max="50" width="8.53125" customWidth="1"/>
-    <col min="51" max="51" width="7.3984375" customWidth="1"/>
-    <col min="57" max="57" width="11.06640625" customWidth="1"/>
-    <col min="58" max="58" width="13.9296875" customWidth="1"/>
-    <col min="60" max="60" width="10.06640625" customWidth="1"/>
-    <col min="63" max="63" width="11.73046875" customWidth="1"/>
-    <col min="64" max="64" width="11.1328125" customWidth="1"/>
+    <col min="30" max="30" width="10.90625" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" customWidth="1"/>
+    <col min="40" max="40" width="11.81640625" customWidth="1"/>
+    <col min="42" max="42" width="11.453125" customWidth="1"/>
+    <col min="50" max="50" width="8.54296875" customWidth="1"/>
+    <col min="51" max="51" width="7.36328125" customWidth="1"/>
+    <col min="57" max="57" width="11.08984375" customWidth="1"/>
+    <col min="58" max="58" width="13.90625" customWidth="1"/>
+    <col min="60" max="60" width="10.08984375" customWidth="1"/>
+    <col min="63" max="63" width="11.7265625" customWidth="1"/>
+    <col min="64" max="64" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:68" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1139,6 +1154,9 @@
       <c r="X2" t="s">
         <v>108</v>
       </c>
+      <c r="Z2" t="s">
+        <v>143</v>
+      </c>
       <c r="AD2" t="s">
         <v>109</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1228,6 +1246,9 @@
       <c r="X3" t="s">
         <v>107</v>
       </c>
+      <c r="Z3" t="s">
+        <v>144</v>
+      </c>
       <c r="AD3" t="s">
         <v>110</v>
       </c>
@@ -1274,7 +1295,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1323,6 +1344,9 @@
       <c r="X4" t="s">
         <v>106</v>
       </c>
+      <c r="Z4" t="s">
+        <v>145</v>
+      </c>
       <c r="AD4" t="s">
         <v>111</v>
       </c>
@@ -1331,6 +1355,12 @@
       </c>
       <c r="AF4" t="s">
         <v>119</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>147</v>
       </c>
       <c r="AM4" t="s">
         <v>112</v>
@@ -1370,7 +1400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB2629-B711-4E26-83B4-C0B9C34B7779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81CB1B-A419-458D-B175-1B3AF6D499EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>№п/п</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Дата подписания контракта</t>
   </si>
   <si>
-    <t>Датат окончания контракта</t>
-  </si>
-  <si>
     <t>СНИЛС</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>ФИО жены/мужа</t>
   </si>
   <si>
-    <t>Адрез проживания</t>
-  </si>
-  <si>
     <t>Место работы3</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>Наличие судимостей</t>
   </si>
   <si>
-    <t>Судимости родстенников</t>
-  </si>
-  <si>
     <t>Вероисповедание</t>
   </si>
   <si>
@@ -295,209 +286,213 @@
     <t>5.12.1989</t>
   </si>
   <si>
-    <t>Муром</t>
-  </si>
-  <si>
-    <t>Гродно</t>
-  </si>
-  <si>
-    <t>Тверь</t>
-  </si>
-  <si>
     <t>каменщик</t>
   </si>
   <si>
+    <t>ПТУ Горно-лесного хозяйства г. Пущино Московская область</t>
+  </si>
+  <si>
+    <t>лесничий</t>
+  </si>
+  <si>
+    <t>Московский государственный университет</t>
+  </si>
+  <si>
+    <t>журналист</t>
+  </si>
+  <si>
+    <t>газета "Известия", журнал "Едим дома"</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>А, Б</t>
+  </si>
+  <si>
+    <t>Средняя школа с. Котельники Ярославской области</t>
+  </si>
+  <si>
+    <t>СМУ №1 г. Саратов</t>
+  </si>
+  <si>
+    <t>Национальный приокский террасный заповедник</t>
+  </si>
+  <si>
+    <t>английский, немецкий</t>
+  </si>
+  <si>
+    <t>узбекский, таджикский</t>
+  </si>
+  <si>
+    <t>украинский</t>
+  </si>
+  <si>
+    <t>Медаль "За спасение погибавших"</t>
+  </si>
+  <si>
+    <t>Почетные грамоты</t>
+  </si>
+  <si>
+    <t>Значок "Меткий стрелок"</t>
+  </si>
+  <si>
+    <t>Египет, 2017; Турция, 2018, 2019</t>
+  </si>
+  <si>
+    <t>Украина, 2020, 2021</t>
+  </si>
+  <si>
+    <t>Таджикистан, 2015; Вьетнам, 2019</t>
+  </si>
+  <si>
+    <t>г. Смоленск</t>
+  </si>
+  <si>
+    <t>г. Киев</t>
+  </si>
+  <si>
+    <t>г. Иркутск</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>г. Смоленск ул. Лесная д. 14</t>
+  </si>
+  <si>
+    <t>г. Донецк ул. 60-летия Октября д. 18 кв. 108</t>
+  </si>
+  <si>
+    <t>г. Иркутск ул. Лосева д. 22 кв. 76</t>
+  </si>
+  <si>
+    <t>г. Ельня ул. Победы д. 15 кв. 1</t>
+  </si>
+  <si>
+    <t>г. Горловка, ул. Зимняя д. 34</t>
+  </si>
+  <si>
+    <t>г. Москва ул. Профсоюзная д. 145, кв. 30</t>
+  </si>
+  <si>
+    <t>КВ 553112</t>
+  </si>
+  <si>
+    <t>ОВД г. Донецка 15.02.2015</t>
+  </si>
+  <si>
+    <t>63 45 112882</t>
+  </si>
+  <si>
+    <t>ОВД Троекуровского района г. Ельня 01.02.2019</t>
+  </si>
+  <si>
+    <t>АБ 744313</t>
+  </si>
+  <si>
+    <t>Выдан в г. Киев</t>
+  </si>
+  <si>
+    <t>вдовец</t>
+  </si>
+  <si>
+    <t>холост</t>
+  </si>
+  <si>
+    <t>женат</t>
+  </si>
+  <si>
+    <t>Батюк Илья Ильич, 18.01.1965</t>
+  </si>
+  <si>
+    <t>Нестеренко Петр Петрович</t>
+  </si>
+  <si>
+    <t>Серпилин Николай Егорович, 09.07.1969</t>
+  </si>
+  <si>
+    <t>г. Балаклея</t>
+  </si>
+  <si>
+    <t>г. Новосибирск</t>
+  </si>
+  <si>
+    <t>г. Вологда</t>
+  </si>
+  <si>
+    <t>Предприятие 1</t>
+  </si>
+  <si>
+    <t>Предприятие 2</t>
+  </si>
+  <si>
+    <t>Предприятие 3</t>
+  </si>
+  <si>
+    <t>Розова Ирина Васильевна</t>
+  </si>
+  <si>
+    <t>Нестеренко Кристина</t>
+  </si>
+  <si>
+    <t>Сомова Авдотья Ивановна</t>
+  </si>
+  <si>
+    <t>ранее к дисциплинарной ответственности не привлекался</t>
+  </si>
+  <si>
+    <t>158 УК РФ</t>
+  </si>
+  <si>
+    <t>24.02.2022</t>
+  </si>
+  <si>
+    <t>10.12.2018</t>
+  </si>
+  <si>
+    <t>25.12.2022</t>
+  </si>
+  <si>
+    <t>45 67 84392</t>
+  </si>
+  <si>
+    <t>ОВД Белогородского района г. Текстильщики</t>
+  </si>
+  <si>
+    <t>Принятие присяги</t>
+  </si>
+  <si>
+    <t>Служба в ВСУ до 2014</t>
+  </si>
+  <si>
+    <t>Загранпаспорт</t>
+  </si>
+  <si>
+    <t>Социальные сети</t>
+  </si>
+  <si>
     <t>Знание иностранных языков</t>
   </si>
   <si>
-    <t>ПТУ Горно-лесного хозяйства г. Пущино Московская область</t>
-  </si>
-  <si>
-    <t>лесничий</t>
-  </si>
-  <si>
-    <t>Московский государственный университет</t>
-  </si>
-  <si>
-    <t>журналист</t>
-  </si>
-  <si>
-    <t>газета "Известия", журнал "Едим дома"</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>А, Б</t>
-  </si>
-  <si>
-    <t>Средняя школа с. Котельники Ярославской области</t>
-  </si>
-  <si>
-    <t>СМУ №1 г. Саратов</t>
-  </si>
-  <si>
-    <t>Национальный приокский террасный заповедник</t>
-  </si>
-  <si>
-    <t>английский, немецкий</t>
-  </si>
-  <si>
-    <t>узбекский, таджикский</t>
-  </si>
-  <si>
-    <t>украинский</t>
-  </si>
-  <si>
-    <t>Медаль "За спасение погибавших"</t>
-  </si>
-  <si>
-    <t>Почетные грамоты</t>
-  </si>
-  <si>
-    <t>Значок "Меткий стрелок"</t>
-  </si>
-  <si>
-    <t>Египет, 2017; Турция, 2018, 2019</t>
-  </si>
-  <si>
-    <t>Украина, 2020, 2021</t>
-  </si>
-  <si>
-    <t>Таджикистан, 2015; Вьетнам, 2019</t>
-  </si>
-  <si>
-    <t>г. Смоленск</t>
-  </si>
-  <si>
-    <t>г. Киев</t>
-  </si>
-  <si>
-    <t>г. Иркутск</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>нет</t>
-  </si>
-  <si>
-    <t>г. Смоленск ул. Лесная д. 14</t>
-  </si>
-  <si>
-    <t>г. Донецк ул. 60-летия Октября д. 18 кв. 108</t>
-  </si>
-  <si>
-    <t>г. Иркутск ул. Лосева д. 22 кв. 76</t>
-  </si>
-  <si>
-    <t>г. Ельня ул. Победы д. 15 кв. 1</t>
-  </si>
-  <si>
-    <t>г. Горловка, ул. Зимняя д. 34</t>
-  </si>
-  <si>
-    <t>г. Москва ул. Профсоюзная д. 145, кв. 30</t>
-  </si>
-  <si>
-    <t>КВ 553112</t>
-  </si>
-  <si>
-    <t>ОВД г. Донецка 15.02.2015</t>
-  </si>
-  <si>
-    <t>63 45 112882</t>
-  </si>
-  <si>
-    <t>ОВД Троекуровского района г. Ельня 01.02.2019</t>
-  </si>
-  <si>
-    <t>АБ 744313</t>
-  </si>
-  <si>
-    <t>Выдан в г. Киев</t>
-  </si>
-  <si>
-    <t>вдовец</t>
-  </si>
-  <si>
-    <t>холост</t>
-  </si>
-  <si>
-    <t>женат</t>
-  </si>
-  <si>
-    <t>Батюк Илья Ильич, 18.01.1965</t>
-  </si>
-  <si>
-    <t>Нестеренко Петр Петрович</t>
-  </si>
-  <si>
-    <t>Серпилин Николай Егорович, 09.07.1969</t>
-  </si>
-  <si>
-    <t>г. Балаклея</t>
-  </si>
-  <si>
-    <t>г. Новосибирск</t>
-  </si>
-  <si>
-    <t>г. Вологда</t>
-  </si>
-  <si>
-    <t>Предприятие 1</t>
-  </si>
-  <si>
-    <t>Предприятие 2</t>
-  </si>
-  <si>
-    <t>Предприятие 3</t>
-  </si>
-  <si>
-    <t>Розова Ирина Васильевна</t>
-  </si>
-  <si>
-    <t>Нестеренко Кристина</t>
-  </si>
-  <si>
-    <t>Сомова Авдотья Ивановна</t>
-  </si>
-  <si>
-    <t>ранее к дисциплинарной ответственности не привлекался</t>
-  </si>
-  <si>
-    <t>158 УК РФ</t>
-  </si>
-  <si>
-    <t>24.02.2022</t>
-  </si>
-  <si>
-    <t>10.12.2018</t>
-  </si>
-  <si>
-    <t>25.12.2022</t>
-  </si>
-  <si>
-    <t>45 67 84392</t>
-  </si>
-  <si>
-    <t>ОВД Белогородского района г. Текстильщики</t>
+    <t>Дата окончания контракта</t>
+  </si>
+  <si>
+    <t>Адрес проживания</t>
+  </si>
+  <si>
+    <t>Судимости родственников</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -511,15 +506,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -527,14 +528,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,496 +944,499 @@
     <col min="64" max="64" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:72" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="S2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" t="s">
         <v>97</v>
       </c>
-      <c r="S2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>101</v>
       </c>
-      <c r="W2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>114</v>
+      <c r="AB2" t="s">
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" t="s">
         <v>122</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>138</v>
-      </c>
       <c r="AU2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" t="s">
-        <v>96</v>
-      </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="W3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>98</v>
       </c>
       <c r="Z3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>137</v>
       </c>
       <c r="AF3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN3" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AQ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR3" t="s">
         <v>120</v>
       </c>
-      <c r="AH3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
       <c r="AT3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AU3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s">
         <v>93</v>
       </c>
-      <c r="T4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W4" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" t="s">
-        <v>106</v>
+      <c r="Y4" t="s">
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>138</v>
       </c>
       <c r="AF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH4" t="s">
         <v>112</v>
       </c>
-      <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>131</v>
+      <c r="AK4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>140</v>
       </c>
       <c r="AQ4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI4" t="s">
         <v>134</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81CB1B-A419-458D-B175-1B3AF6D499EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A41669-04F2-4CC9-8FCB-A0369814741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
   <si>
     <t>№п/п</t>
   </si>
@@ -485,6 +485,18 @@
   </si>
   <si>
     <t>Судимости родственников</t>
+  </si>
+  <si>
+    <t>РК-635112</t>
+  </si>
+  <si>
+    <t>капитан</t>
+  </si>
+  <si>
+    <t>Волосов Геннадий Степанович</t>
+  </si>
+  <si>
+    <t>18.08.1970</t>
   </si>
 </sst>
 </file>
@@ -908,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
-  <dimension ref="A1:BT4"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1435,6 +1447,23 @@
         <v>134</v>
       </c>
     </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A41669-04F2-4CC9-8FCB-A0369814741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D60AD8-38AE-4E38-9A43-624473D6ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
   <si>
     <t>№п/п</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>18.08.1970</t>
+  </si>
+  <si>
+    <t>Манси</t>
+  </si>
+  <si>
+    <t>Токаев Аксай Берметович</t>
+  </si>
+  <si>
+    <t>ЛК-884912</t>
   </si>
 </sst>
 </file>
@@ -920,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
-  <dimension ref="A1:BT5"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +941,8 @@
     <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="7" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="39.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
     <col min="10" max="10" width="5.6328125" customWidth="1"/>
     <col min="11" max="11" width="5.7265625" customWidth="1"/>
@@ -1463,6 +1473,26 @@
       <c r="G5" t="s">
         <v>152</v>
       </c>
+      <c r="J5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D60AD8-38AE-4E38-9A43-624473D6ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F8C08-0F5A-4A54-BD49-F6F72E46152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
   <si>
     <t>№п/п</t>
   </si>
@@ -506,6 +506,24 @@
   </si>
   <si>
     <t>ЛК-884912</t>
+  </si>
+  <si>
+    <t>Лисицына Ирина</t>
+  </si>
+  <si>
+    <t>Серпилина Людмила</t>
+  </si>
+  <si>
+    <t>Корчагин Павел</t>
+  </si>
+  <si>
+    <t>якорь на кисти левой руки</t>
+  </si>
+  <si>
+    <t>родимое пятно на правой щеке</t>
+  </si>
+  <si>
+    <t>собирает покемонов в рабочее время</t>
   </si>
 </sst>
 </file>
@@ -931,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
   <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,6 +1224,9 @@
       <c r="K2" t="s">
         <v>71</v>
       </c>
+      <c r="L2">
+        <v>160</v>
+      </c>
       <c r="S2" t="s">
         <v>72</v>
       </c>
@@ -1295,6 +1316,9 @@
       <c r="K3" t="s">
         <v>71</v>
       </c>
+      <c r="M3">
+        <v>78</v>
+      </c>
       <c r="S3" t="s">
         <v>73</v>
       </c>
@@ -1363,6 +1387,9 @@
       </c>
       <c r="AY3" t="s">
         <v>126</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>156</v>
       </c>
       <c r="BI3" t="s">
         <v>135</v>
@@ -1390,6 +1417,12 @@
       <c r="K4" t="s">
         <v>71</v>
       </c>
+      <c r="L4">
+        <v>174</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
       <c r="S4" t="s">
         <v>74</v>
       </c>
@@ -1453,8 +1486,23 @@
       <c r="AY4" t="s">
         <v>127</v>
       </c>
+      <c r="BB4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>157</v>
+      </c>
       <c r="BI4" t="s">
         <v>134</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.35">

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F8C08-0F5A-4A54-BD49-F6F72E46152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25879FF0-7A18-4C87-ADB2-D8D5312D924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лишний лист" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
-  <si>
-    <t>№п/п</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
   <si>
     <t>Личный номер</t>
   </si>
@@ -91,9 +88,6 @@
     <t>Тип образования</t>
   </si>
   <si>
-    <t>Учреждение</t>
-  </si>
-  <si>
     <t>Профессия</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Какие страны посещал/посещала</t>
   </si>
   <si>
-    <t>Каким военкоматом</t>
-  </si>
-  <si>
     <t>Дата подписания контракта</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Адрес проживания отца</t>
   </si>
   <si>
-    <t>Место работы</t>
-  </si>
-  <si>
     <t>Номер телефона отца</t>
   </si>
   <si>
@@ -175,45 +163,18 @@
     <t>Адрес проживания матери</t>
   </si>
   <si>
-    <t>Место работы2</t>
-  </si>
-  <si>
     <t>Номер телефона матери</t>
   </si>
   <si>
-    <t>Данные братьев/сестер</t>
-  </si>
-  <si>
-    <t>ФИО жены/мужа</t>
-  </si>
-  <si>
-    <t>Место работы3</t>
-  </si>
-  <si>
-    <t>Номер телефона2</t>
-  </si>
-  <si>
-    <t>Дети</t>
-  </si>
-  <si>
     <t>Взаимоотношения в семье</t>
   </si>
   <si>
-    <t>Наличие судимостей</t>
-  </si>
-  <si>
     <t>Вероисповедание</t>
   </si>
   <si>
     <t>Увлечения</t>
   </si>
   <si>
-    <t>Особые приметы</t>
-  </si>
-  <si>
-    <t>Татуировки</t>
-  </si>
-  <si>
     <t>Отношение к алкоголю</t>
   </si>
   <si>
@@ -226,9 +187,6 @@
     <t>Попытки суицида</t>
   </si>
   <si>
-    <t>Участие в Б/Д</t>
-  </si>
-  <si>
     <t>Планируемый род занятий после войны</t>
   </si>
   <si>
@@ -259,12 +217,6 @@
     <t>среднее</t>
   </si>
   <si>
-    <t>среднее-специальное</t>
-  </si>
-  <si>
-    <t>высшее</t>
-  </si>
-  <si>
     <t>Нестеренко Константин Петрович</t>
   </si>
   <si>
@@ -289,141 +241,39 @@
     <t>каменщик</t>
   </si>
   <si>
-    <t>ПТУ Горно-лесного хозяйства г. Пущино Московская область</t>
-  </si>
-  <si>
-    <t>лесничий</t>
-  </si>
-  <si>
-    <t>Московский государственный университет</t>
-  </si>
-  <si>
-    <t>журналист</t>
-  </si>
-  <si>
-    <t>газета "Известия", журнал "Едим дома"</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>А, Б</t>
-  </si>
-  <si>
-    <t>Средняя школа с. Котельники Ярославской области</t>
-  </si>
-  <si>
     <t>СМУ №1 г. Саратов</t>
   </si>
   <si>
-    <t>Национальный приокский террасный заповедник</t>
-  </si>
-  <si>
-    <t>английский, немецкий</t>
-  </si>
-  <si>
     <t>узбекский, таджикский</t>
   </si>
   <si>
-    <t>украинский</t>
-  </si>
-  <si>
-    <t>Медаль "За спасение погибавших"</t>
-  </si>
-  <si>
     <t>Почетные грамоты</t>
   </si>
   <si>
-    <t>Значок "Меткий стрелок"</t>
-  </si>
-  <si>
-    <t>Египет, 2017; Турция, 2018, 2019</t>
-  </si>
-  <si>
-    <t>Украина, 2020, 2021</t>
-  </si>
-  <si>
     <t>Таджикистан, 2015; Вьетнам, 2019</t>
   </si>
   <si>
     <t>г. Смоленск</t>
   </si>
   <si>
-    <t>г. Киев</t>
-  </si>
-  <si>
-    <t>г. Иркутск</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
     <t>нет</t>
   </si>
   <si>
-    <t>г. Смоленск ул. Лесная д. 14</t>
-  </si>
-  <si>
-    <t>г. Донецк ул. 60-летия Октября д. 18 кв. 108</t>
-  </si>
-  <si>
-    <t>г. Иркутск ул. Лосева д. 22 кв. 76</t>
-  </si>
-  <si>
-    <t>г. Ельня ул. Победы д. 15 кв. 1</t>
-  </si>
-  <si>
-    <t>г. Горловка, ул. Зимняя д. 34</t>
-  </si>
-  <si>
-    <t>г. Москва ул. Профсоюзная д. 145, кв. 30</t>
-  </si>
-  <si>
-    <t>КВ 553112</t>
-  </si>
-  <si>
-    <t>ОВД г. Донецка 15.02.2015</t>
-  </si>
-  <si>
     <t>63 45 112882</t>
   </si>
   <si>
     <t>ОВД Троекуровского района г. Ельня 01.02.2019</t>
   </si>
   <si>
-    <t>АБ 744313</t>
-  </si>
-  <si>
-    <t>Выдан в г. Киев</t>
-  </si>
-  <si>
-    <t>вдовец</t>
-  </si>
-  <si>
-    <t>холост</t>
-  </si>
-  <si>
     <t>женат</t>
   </si>
   <si>
     <t>Батюк Илья Ильич, 18.01.1965</t>
   </si>
   <si>
-    <t>Нестеренко Петр Петрович</t>
-  </si>
-  <si>
-    <t>Серпилин Николай Егорович, 09.07.1969</t>
-  </si>
-  <si>
     <t>г. Балаклея</t>
   </si>
   <si>
-    <t>г. Новосибирск</t>
-  </si>
-  <si>
-    <t>г. Вологда</t>
-  </si>
-  <si>
     <t>Предприятие 1</t>
   </si>
   <si>
@@ -436,33 +286,6 @@
     <t>Розова Ирина Васильевна</t>
   </si>
   <si>
-    <t>Нестеренко Кристина</t>
-  </si>
-  <si>
-    <t>Сомова Авдотья Ивановна</t>
-  </si>
-  <si>
-    <t>ранее к дисциплинарной ответственности не привлекался</t>
-  </si>
-  <si>
-    <t>158 УК РФ</t>
-  </si>
-  <si>
-    <t>24.02.2022</t>
-  </si>
-  <si>
-    <t>10.12.2018</t>
-  </si>
-  <si>
-    <t>25.12.2022</t>
-  </si>
-  <si>
-    <t>45 67 84392</t>
-  </si>
-  <si>
-    <t>ОВД Белогородского района г. Текстильщики</t>
-  </si>
-  <si>
     <t>Принятие присяги</t>
   </si>
   <si>
@@ -481,9 +304,6 @@
     <t>Дата окончания контракта</t>
   </si>
   <si>
-    <t>Адрес проживания</t>
-  </si>
-  <si>
     <t>Судимости родственников</t>
   </si>
   <si>
@@ -508,29 +328,206 @@
     <t>ЛК-884912</t>
   </si>
   <si>
-    <t>Лисицына Ирина</t>
-  </si>
-  <si>
-    <t>Серпилина Людмила</t>
-  </si>
-  <si>
-    <t>Корчагин Павел</t>
-  </si>
-  <si>
-    <t>якорь на кисти левой руки</t>
-  </si>
-  <si>
-    <t>родимое пятно на правой щеке</t>
-  </si>
-  <si>
-    <t>собирает покемонов в рабочее время</t>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>В/должность</t>
+  </si>
+  <si>
+    <t>Группа крови</t>
+  </si>
+  <si>
+    <t>Учреждение(год окончания)</t>
+  </si>
+  <si>
+    <t>Серия ВБ</t>
+  </si>
+  <si>
+    <t>Номер ВБ</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>Военкомат</t>
+  </si>
+  <si>
+    <t>Каким военкоматом призван</t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Место работы отца</t>
+  </si>
+  <si>
+    <t>Место работы матери</t>
+  </si>
+  <si>
+    <t>ФИО братьев/сестер, дата рождения</t>
+  </si>
+  <si>
+    <t>Адрес проживания братьев/сестер</t>
+  </si>
+  <si>
+    <t>Место работы братьев/сестер</t>
+  </si>
+  <si>
+    <t>Номер телефона братьев/сестер</t>
+  </si>
+  <si>
+    <t>ФИО жены/мужа, дата рождения</t>
+  </si>
+  <si>
+    <t>Адрес проживания жены/мужа</t>
+  </si>
+  <si>
+    <t>Место работы жены/мужа</t>
+  </si>
+  <si>
+    <t>Номер телефона жены/мужа</t>
+  </si>
+  <si>
+    <t>Количество детей, ФИО</t>
+  </si>
+  <si>
+    <t>Дата рождения детей</t>
+  </si>
+  <si>
+    <t>Возраст детей</t>
+  </si>
+  <si>
+    <t>Адрес проживания детей</t>
+  </si>
+  <si>
+    <t>Номер телефона детей</t>
+  </si>
+  <si>
+    <t>Наличие судимостей(погашены/нет)</t>
+  </si>
+  <si>
+    <t>Особые приметы(Цвет и длина волос/цвет глаз/особенность строения черепа/форма носа, ушей и т.д./наличие бороды/наличие родимых пятен, шрамов, родинок/протезов/ампутаций)</t>
+  </si>
+  <si>
+    <t>Татуировки(какие/где, описание каждой)</t>
+  </si>
+  <si>
+    <t>Описание дополнительных элементов(наручные часы, очки (контактные линзы), обереги, амулеты, кольца (в том числе обручальные), перстни, цепочки (с указанием типа металла), шнурки, молитвенная атрибутика (крестики, иконки, карманные молитвенники)</t>
+  </si>
+  <si>
+    <t>Индивидуальные отличительные признаки(размер одежды и обуви, какое имеет снаряжение и оружие, их номера, наличие особенностей и меток на форме и снаряжении)</t>
+  </si>
+  <si>
+    <t>Участие в Б/Д(место и время, подразделение в составе которого принимал участие)</t>
+  </si>
+  <si>
+    <t>стрелок 1 отделения</t>
+  </si>
+  <si>
+    <t>22.01.2023</t>
+  </si>
+  <si>
+    <t>18.01.2023</t>
+  </si>
+  <si>
+    <t>Борода</t>
+  </si>
+  <si>
+    <t>8-923-257-08-09</t>
+  </si>
+  <si>
+    <t>АА</t>
+  </si>
+  <si>
+    <t>05.12.2022</t>
+  </si>
+  <si>
+    <t>Смоленский военкомат</t>
+  </si>
+  <si>
+    <t>Псковский военкомат</t>
+  </si>
+  <si>
+    <t>10.12.2022</t>
+  </si>
+  <si>
+    <t>10.12.2023</t>
+  </si>
+  <si>
+    <t>ССА-76431</t>
+  </si>
+  <si>
+    <t>1111 2222 3333 4444</t>
+  </si>
+  <si>
+    <t>г. Видное ул. Калинина д.18</t>
+  </si>
+  <si>
+    <t>ОВД 11</t>
+  </si>
+  <si>
+    <t>ПБС</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>8-916-112-78-67</t>
+  </si>
+  <si>
+    <t>8-916-200-30-40</t>
+  </si>
+  <si>
+    <t>Батюк Елена Ивановна, 04.10.1991</t>
+  </si>
+  <si>
+    <t>г. Смоленск, ул. Школьная д.11 кв. 30</t>
+  </si>
+  <si>
+    <t>8-940-443-22-11</t>
+  </si>
+  <si>
+    <t>15.07.2019,07.11.2021</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>нормальные</t>
+  </si>
+  <si>
+    <t>дядя УК-111</t>
+  </si>
+  <si>
+    <t>православный</t>
+  </si>
+  <si>
+    <t>нумизматика</t>
+  </si>
+  <si>
+    <t>Среднего роста, плотное телосложение, волосы темные, короткая стрижка, серо-зеленые глаза, нос прямой, носит очки.</t>
+  </si>
+  <si>
+    <t>Якорь (левое предплечье)</t>
+  </si>
+  <si>
+    <t>обручальное кольцо, нательный крест</t>
+  </si>
+  <si>
+    <t>Размер одежды=48, надпись на каске "борода"</t>
+  </si>
+  <si>
+    <t>Средняя школа с. Котельники Ярославской области, 2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,38 +541,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,18 +573,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -606,20 +585,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,7 +927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -947,599 +936,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:CK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BL5" sqref="BL5"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CB1" sqref="CB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="39.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" customWidth="1"/>
-    <col min="10" max="10" width="5.6328125" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="12" width="5.08984375" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="17.53125" customWidth="1"/>
+    <col min="6" max="6" width="39.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.06640625" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.73046875" customWidth="1"/>
+    <col min="12" max="12" width="5.06640625" customWidth="1"/>
+    <col min="15" max="15" width="11.46484375" customWidth="1"/>
+    <col min="16" max="16" width="10.9296875" customWidth="1"/>
+    <col min="17" max="17" width="12.796875" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="30" max="30" width="10.90625" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" customWidth="1"/>
-    <col min="40" max="40" width="11.81640625" customWidth="1"/>
-    <col min="42" max="42" width="11.453125" customWidth="1"/>
-    <col min="50" max="50" width="8.54296875" customWidth="1"/>
-    <col min="51" max="51" width="7.36328125" customWidth="1"/>
-    <col min="57" max="57" width="11.08984375" customWidth="1"/>
-    <col min="58" max="58" width="13.90625" customWidth="1"/>
-    <col min="60" max="60" width="10.08984375" customWidth="1"/>
-    <col min="63" max="63" width="11.7265625" customWidth="1"/>
-    <col min="64" max="64" width="11.08984375" customWidth="1"/>
+    <col min="22" max="22" width="11.46484375" customWidth="1"/>
+    <col min="30" max="30" width="10.9296875" customWidth="1"/>
+    <col min="39" max="39" width="11.46484375" customWidth="1"/>
+    <col min="40" max="40" width="15.796875" customWidth="1"/>
+    <col min="41" max="41" width="13.73046875" customWidth="1"/>
+    <col min="42" max="42" width="11.46484375" customWidth="1"/>
+    <col min="50" max="50" width="8.53125" customWidth="1"/>
+    <col min="51" max="51" width="7.33203125" customWidth="1"/>
+    <col min="57" max="57" width="11.06640625" customWidth="1"/>
+    <col min="58" max="58" width="13.9296875" customWidth="1"/>
+    <col min="60" max="60" width="10.06640625" customWidth="1"/>
+    <col min="63" max="63" width="11.73046875" customWidth="1"/>
+    <col min="64" max="64" width="11.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:89" s="6" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="CH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2">
+        <v>160</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AA2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD2">
+        <v>1234567</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT2">
+        <v>11223344</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2">
-        <v>160</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="BC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR2">
+        <v>2</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BX2" t="s">
         <v>72</v>
       </c>
-      <c r="T2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>134</v>
+      <c r="BY2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3">
         <v>78</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4">
         <v>174</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" t="s">
-        <v>153</v>
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25879FF0-7A18-4C87-ADB2-D8D5312D924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F947F-0820-4D07-8D92-26902BA54ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
   <dimension ref="A1:CK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CB1" sqref="CB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F947F-0820-4D07-8D92-26902BA54ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86639707-8243-4C77-928E-E9E03F92EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лишний лист" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="167">
   <si>
     <t>Личный номер</t>
   </si>
@@ -521,6 +521,24 @@
   </si>
   <si>
     <t>Средняя школа с. Котельники Ярославской области, 2000</t>
+  </si>
+  <si>
+    <t>ПДНР 11 22 33</t>
+  </si>
+  <si>
+    <t>ОВД Ленинского района</t>
+  </si>
+  <si>
+    <t>ПУКР 22 33 44</t>
+  </si>
+  <si>
+    <t>ПЗГРН 77 88 66</t>
+  </si>
+  <si>
+    <t>г. Симферополь, ул. Южная д.4 кв. 12</t>
+  </si>
+  <si>
+    <t>Статус (200/БП/СОЧ)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -936,47 +954,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
-  <dimension ref="A1:CK6"/>
+  <dimension ref="A1:CL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="5" max="5" width="17.53125" customWidth="1"/>
-    <col min="6" max="6" width="39.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.73046875" customWidth="1"/>
-    <col min="12" max="12" width="5.06640625" customWidth="1"/>
-    <col min="15" max="15" width="11.46484375" customWidth="1"/>
-    <col min="16" max="16" width="10.9296875" customWidth="1"/>
-    <col min="17" max="17" width="12.796875" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" customWidth="1"/>
-    <col min="19" max="19" width="10.19921875" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="11.46484375" customWidth="1"/>
-    <col min="30" max="30" width="10.9296875" customWidth="1"/>
-    <col min="39" max="39" width="11.46484375" customWidth="1"/>
-    <col min="40" max="40" width="15.796875" customWidth="1"/>
-    <col min="41" max="41" width="13.73046875" customWidth="1"/>
-    <col min="42" max="42" width="11.46484375" customWidth="1"/>
-    <col min="50" max="50" width="8.53125" customWidth="1"/>
-    <col min="51" max="51" width="7.33203125" customWidth="1"/>
-    <col min="57" max="57" width="11.06640625" customWidth="1"/>
-    <col min="58" max="58" width="13.9296875" customWidth="1"/>
-    <col min="60" max="60" width="10.06640625" customWidth="1"/>
-    <col min="63" max="63" width="11.73046875" customWidth="1"/>
-    <col min="64" max="64" width="11.06640625" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="19" max="19" width="12.1796875" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="31" max="31" width="10.90625" customWidth="1"/>
+    <col min="40" max="40" width="11.453125" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" customWidth="1"/>
+    <col min="43" max="43" width="11.453125" customWidth="1"/>
+    <col min="51" max="51" width="8.54296875" customWidth="1"/>
+    <col min="52" max="52" width="7.36328125" customWidth="1"/>
+    <col min="58" max="58" width="11.08984375" customWidth="1"/>
+    <col min="59" max="59" width="13.90625" customWidth="1"/>
+    <col min="61" max="61" width="10.08984375" customWidth="1"/>
+    <col min="64" max="64" width="11.7265625" customWidth="1"/>
+    <col min="65" max="65" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="6" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:90" s="6" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -989,263 +1008,266 @@
       <c r="D1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1258,194 +1280,206 @@
       <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>160</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>160</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>133</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1234567</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>134</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>135</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>137</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>138</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>139</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>140</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>141</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>74</v>
       </c>
+      <c r="AP2" t="s">
+        <v>161</v>
+      </c>
       <c r="AQ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR2" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>142</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>143</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>11223344</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AV2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY2" t="s">
         <v>144</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>75</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>4</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>76</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>77</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>78</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>145</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>81</v>
       </c>
-      <c r="BG2" t="s">
-        <v>77</v>
-      </c>
       <c r="BH2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI2" t="s">
         <v>79</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>146</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>147</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>148</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>80</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>149</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>2</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>150</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>151</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>148</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>152</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>72</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>153</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>154</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>155</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>156</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>157</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>158</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1455,23 +1489,23 @@
       <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1481,26 +1515,26 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>174</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1510,20 +1544,20 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>91</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>92</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>93</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1533,7 +1567,7 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1550,7 +1584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pisar/data/personnel-details-demo.xlsx
+++ b/pisar/data/personnel-details-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pisar_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86639707-8243-4C77-928E-E9E03F92EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA5026-3D2E-4C0F-958B-0DA074B63A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C02CB7C7-9D3E-423C-A536-F2D74F3304F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лишний лист" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
   <si>
     <t>Личный номер</t>
   </si>
@@ -262,9 +262,6 @@
     <t>63 45 112882</t>
   </si>
   <si>
-    <t>ОВД Троекуровского района г. Ельня 01.02.2019</t>
-  </si>
-  <si>
     <t>женат</t>
   </si>
   <si>
@@ -539,6 +536,126 @@
   </si>
   <si>
     <t>Статус (200/БП/СОЧ)</t>
+  </si>
+  <si>
+    <t>пулеметчик</t>
+  </si>
+  <si>
+    <t>15.09.2023</t>
+  </si>
+  <si>
+    <t>10.01.2023</t>
+  </si>
+  <si>
+    <t>Камень</t>
+  </si>
+  <si>
+    <t>8-916-257-00-14</t>
+  </si>
+  <si>
+    <t>контрактник</t>
+  </si>
+  <si>
+    <t>09.01.2023</t>
+  </si>
+  <si>
+    <t>не служил</t>
+  </si>
+  <si>
+    <t>I (O)</t>
+  </si>
+  <si>
+    <t>Почетная грамота</t>
+  </si>
+  <si>
+    <t>строгий выговор 16.03.2023</t>
+  </si>
+  <si>
+    <t>высшее</t>
+  </si>
+  <si>
+    <t>учитель физкультуры</t>
+  </si>
+  <si>
+    <t>Средняя школа г. Кимры</t>
+  </si>
+  <si>
+    <t>Пятигорский государственный университет, 2020</t>
+  </si>
+  <si>
+    <t>английский, немецкий</t>
+  </si>
+  <si>
+    <t>Орден мужества</t>
+  </si>
+  <si>
+    <t>Египет, 2015; Германия 2020</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>11.01.2023</t>
+  </si>
+  <si>
+    <t>Военкомат г. Кимры</t>
+  </si>
+  <si>
+    <t>Московский военкомат</t>
+  </si>
+  <si>
+    <t>25.12.2022</t>
+  </si>
+  <si>
+    <t>25.12.2024</t>
+  </si>
+  <si>
+    <t>ССА-556677</t>
+  </si>
+  <si>
+    <t>5543 6789 6361 4456</t>
+  </si>
+  <si>
+    <t>г. Кимры ул. Братьев Карамазовых д. 15 кв 27</t>
+  </si>
+  <si>
+    <t>пос. Крестовое д.20</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Серпилин Ефим Николаевич, 06.09.1955</t>
+  </si>
+  <si>
+    <t>г. Кимры</t>
+  </si>
+  <si>
+    <t>Серпилина Оксана Алексеевна, 28.04.1960</t>
+  </si>
+  <si>
+    <t>пос. Рабочий</t>
+  </si>
+  <si>
+    <t>Серпилина Татьяна Васильевна, 17.10.1995</t>
+  </si>
+  <si>
+    <t>20.07.1999</t>
+  </si>
+  <si>
+    <t>тетя, УК-111</t>
+  </si>
+  <si>
+    <t>буддист</t>
+  </si>
+  <si>
+    <t>рыбалка</t>
+  </si>
+  <si>
+    <t>Размер одежды=48, надпись на каске "камень"</t>
+  </si>
+  <si>
+    <t>г. Петропавловск</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1062,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -956,48 +1073,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C1D9F2-D9D8-4BEB-B68E-9A3625C4731E}">
   <dimension ref="A1:CL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="39.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="5.08984375" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.265625" customWidth="1"/>
+    <col min="6" max="6" width="17.53125" customWidth="1"/>
+    <col min="7" max="7" width="39.265625" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10.06640625" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" customWidth="1"/>
+    <col min="13" max="13" width="5.06640625" customWidth="1"/>
+    <col min="16" max="16" width="11.46484375" customWidth="1"/>
+    <col min="17" max="17" width="10.9296875" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" customWidth="1"/>
+    <col min="19" max="19" width="12.19921875" customWidth="1"/>
+    <col min="20" max="20" width="10.19921875" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" customWidth="1"/>
-    <col min="31" max="31" width="10.90625" customWidth="1"/>
-    <col min="40" max="40" width="11.453125" customWidth="1"/>
-    <col min="41" max="41" width="15.81640625" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" customWidth="1"/>
-    <col min="51" max="51" width="8.54296875" customWidth="1"/>
-    <col min="52" max="52" width="7.36328125" customWidth="1"/>
-    <col min="58" max="58" width="11.08984375" customWidth="1"/>
-    <col min="59" max="59" width="13.90625" customWidth="1"/>
-    <col min="61" max="61" width="10.08984375" customWidth="1"/>
-    <col min="64" max="64" width="11.7265625" customWidth="1"/>
-    <col min="65" max="65" width="11.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.46484375" customWidth="1"/>
+    <col min="31" max="31" width="10.9296875" customWidth="1"/>
+    <col min="40" max="40" width="11.46484375" customWidth="1"/>
+    <col min="41" max="41" width="15.796875" customWidth="1"/>
+    <col min="42" max="42" width="13.73046875" customWidth="1"/>
+    <col min="43" max="43" width="11.46484375" customWidth="1"/>
+    <col min="51" max="51" width="8.53125" customWidth="1"/>
+    <col min="52" max="52" width="7.33203125" customWidth="1"/>
+    <col min="58" max="58" width="11.06640625" customWidth="1"/>
+    <col min="59" max="59" width="13.9296875" customWidth="1"/>
+    <col min="61" max="61" width="10.06640625" customWidth="1"/>
+    <col min="64" max="64" width="11.73046875" customWidth="1"/>
+    <col min="65" max="65" width="11.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="6" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:90" s="6" customFormat="1" ht="51.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1006,16 +1123,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -1042,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1051,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>13</v>
@@ -1063,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>16</v>
@@ -1075,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>19</v>
@@ -1084,25 +1201,25 @@
         <v>20</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>22</v>
@@ -1132,22 +1249,22 @@
         <v>30</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>33</v>
@@ -1165,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>38</v>
@@ -1177,58 +1294,58 @@
         <v>40</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="BK1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="BX1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="BY1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>43</v>
@@ -1237,16 +1354,16 @@
         <v>44</v>
       </c>
       <c r="CC1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="CG1" s="2" t="s">
         <v>45</v>
@@ -1261,13 +1378,13 @@
         <v>48</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1278,13 +1395,13 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>54</v>
@@ -1293,10 +1410,10 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -1311,7 +1428,7 @@
         <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X2" t="s">
         <v>66</v>
@@ -1332,154 +1449,151 @@
         <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE2">
         <v>1234567</v>
       </c>
       <c r="AF2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG2" t="s">
         <v>134</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>135</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>139</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>140</v>
       </c>
       <c r="AM2" t="s">
         <v>71</v>
       </c>
       <c r="AN2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AP2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>161</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>162</v>
       </c>
       <c r="AR2" t="s">
         <v>73</v>
       </c>
       <c r="AS2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT2" t="s">
         <v>142</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>143</v>
       </c>
       <c r="AU2">
         <v>11223344</v>
       </c>
       <c r="AV2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW2" t="s">
         <v>163</v>
       </c>
-      <c r="AW2" t="s">
-        <v>164</v>
-      </c>
       <c r="AY2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AZ2" t="s">
         <v>72</v>
       </c>
       <c r="BA2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BB2">
         <v>4</v>
       </c>
       <c r="BC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" t="s">
         <v>76</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>77</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI2" t="s">
         <v>78</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>145</v>
       </c>
-      <c r="BG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>79</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>148</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>149</v>
       </c>
       <c r="BS2">
         <v>2</v>
       </c>
       <c r="BT2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU2" t="s">
         <v>150</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX2" t="s">
         <v>151</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>152</v>
       </c>
       <c r="BY2" t="s">
         <v>72</v>
       </c>
       <c r="BZ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA2" t="s">
         <v>153</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>154</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>155</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>156</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>157</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>158</v>
       </c>
-      <c r="CF2" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1505,7 +1619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1515,12 +1629,27 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
+        <v>168</v>
+      </c>
       <c r="H4" t="s">
         <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
       </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="L4" t="s">
         <v>61</v>
       </c>
@@ -1533,42 +1662,225 @@
       <c r="O4">
         <v>90</v>
       </c>
+      <c r="P4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" t="s">
+        <v>176</v>
+      </c>
+      <c r="V4" t="s">
+        <v>177</v>
+      </c>
+      <c r="W4" t="s">
+        <v>180</v>
+      </c>
+      <c r="X4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE4">
+        <v>7654321</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU4">
+        <v>11223344</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>201</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>202</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>90</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>91</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>93</v>
       </c>
       <c r="M5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
